--- a/DataSets/Пример_исх_данных_для_ВГУ.xlsx
+++ b/DataSets/Пример_исх_данных_для_ВГУ.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\Python\KnowledgeExtractorApp\DataSets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WebDev\KnowledgeExtractor\DataSets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FF57763-C536-4C0B-BC7D-E3AFCE61EABF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47FACD0C-4500-4F0E-8B20-E1414E60A0B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="794" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="177">
   <si>
     <t>62</t>
   </si>
@@ -142,9 +142,6 @@
     <t>без эффекта</t>
   </si>
   <si>
-    <t>утолщены, 4-5 мм</t>
-  </si>
-  <si>
     <t>Обстоятельства</t>
   </si>
   <si>
@@ -253,16 +250,10 @@
     <t>суховат</t>
   </si>
   <si>
-    <t>утолщены 5 мм</t>
-  </si>
-  <si>
     <t>38790/16</t>
   </si>
   <si>
     <t>44</t>
-  </si>
-  <si>
-    <t>7,1</t>
   </si>
   <si>
     <t>33677/16</t>
@@ -271,16 +262,7 @@
     <t>64</t>
   </si>
   <si>
-    <t>5,5</t>
-  </si>
-  <si>
     <t>39</t>
-  </si>
-  <si>
-    <t>4,4</t>
-  </si>
-  <si>
-    <t>3 мм</t>
   </si>
   <si>
     <t>33679/16</t>
@@ -289,13 +271,7 @@
     <t>38</t>
   </si>
   <si>
-    <t>6,9</t>
-  </si>
-  <si>
     <t>33686/16</t>
-  </si>
-  <si>
-    <t>8,5</t>
   </si>
   <si>
     <t>33442/16</t>
@@ -304,19 +280,10 @@
     <t>Стенки утолщены, 4-5 мм, не однородные.</t>
   </si>
   <si>
-    <t>7,7</t>
-  </si>
-  <si>
     <t>33576/16</t>
   </si>
   <si>
     <t>46</t>
-  </si>
-  <si>
-    <t>4,8</t>
-  </si>
-  <si>
-    <t>12,7</t>
   </si>
   <si>
     <t>28687/16</t>
@@ -325,37 +292,16 @@
     <t>36</t>
   </si>
   <si>
-    <t>43,1</t>
-  </si>
-  <si>
-    <t>5,8</t>
-  </si>
-  <si>
     <t>29109/16</t>
-  </si>
-  <si>
-    <t>5,6</t>
-  </si>
-  <si>
-    <t>6,5</t>
   </si>
   <si>
     <t>УЗИ-СтенкиЖП, мм</t>
   </si>
   <si>
-    <t xml:space="preserve"> болезненный</t>
-  </si>
-  <si>
     <t>боль, тошнота</t>
   </si>
   <si>
-    <t>35-</t>
-  </si>
-  <si>
     <t>д 4</t>
-  </si>
-  <si>
-    <t>21,6+</t>
   </si>
   <si>
     <t>д (1, 2, 3)</t>
@@ -391,12 +337,6 @@
     <t xml:space="preserve">болезненность </t>
   </si>
   <si>
-    <t>3,6-</t>
-  </si>
-  <si>
-    <t>33,4-</t>
-  </si>
-  <si>
     <t xml:space="preserve"> после приема пищи</t>
   </si>
   <si>
@@ -406,19 +346,10 @@
     <t>с временным положительным эффектом</t>
   </si>
   <si>
-    <t>33-</t>
-  </si>
-  <si>
-    <t>12,2+</t>
-  </si>
-  <si>
     <t>ч.12</t>
   </si>
   <si>
     <t>ч.1, 12</t>
-  </si>
-  <si>
-    <t>14+</t>
   </si>
   <si>
     <t xml:space="preserve">в эпигастрии </t>
@@ -430,9 +361,6 @@
     <t>в верхних отделах живота, больше справа</t>
   </si>
   <si>
-    <t>6 мм,</t>
-  </si>
-  <si>
     <t>д 7</t>
   </si>
   <si>
@@ -442,28 +370,10 @@
     <t>впервые конкременты в желчном пузыре выявлены 5 мес назад</t>
   </si>
   <si>
-    <t>12,8+</t>
-  </si>
-  <si>
-    <t>9,4</t>
-  </si>
-  <si>
-    <t>75,3</t>
-  </si>
-  <si>
-    <t>4,2</t>
-  </si>
-  <si>
     <t>временный Положит</t>
   </si>
   <si>
     <t>д 10</t>
-  </si>
-  <si>
-    <t>13+</t>
-  </si>
-  <si>
-    <t>34,2-</t>
   </si>
   <si>
     <t>(д 1,2,3), (д 10),</t>
@@ -478,9 +388,6 @@
     <t>погрешностью в диете с приемом острой, жирной пищи.</t>
   </si>
   <si>
-    <t>37,9-</t>
-  </si>
-  <si>
     <t xml:space="preserve">тянущие </t>
   </si>
   <si>
@@ -490,9 +397,6 @@
     <t>иррадиирущие в спину</t>
   </si>
   <si>
-    <t>24,4+</t>
-  </si>
-  <si>
     <t>безболезненный</t>
   </si>
   <si>
@@ -500,9 +404,6 @@
   </si>
   <si>
     <t xml:space="preserve">умеренные  </t>
-  </si>
-  <si>
-    <t>61-</t>
   </si>
   <si>
     <t>(д.1, 2,); д 3</t>
@@ -529,43 +430,10 @@
     <t>после приема пищи</t>
   </si>
   <si>
-    <t>24,9+</t>
-  </si>
-  <si>
     <t>с желтым налётом</t>
   </si>
   <si>
-    <t>не утолщены, 2 мм</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> утолщены, 4-5 мм</t>
-  </si>
-  <si>
-    <t>не утолщены, 3,2 мм</t>
-  </si>
-  <si>
     <t xml:space="preserve"> во всех отделах</t>
-  </si>
-  <si>
-    <t>34-</t>
-  </si>
-  <si>
-    <t>не утолщены, 3 мм</t>
-  </si>
-  <si>
-    <t>41,8</t>
-  </si>
-  <si>
-    <t>16,6+</t>
-  </si>
-  <si>
-    <t>74,5</t>
-  </si>
-  <si>
-    <t>7,4</t>
-  </si>
-  <si>
-    <t>4 мм</t>
   </si>
   <si>
     <t xml:space="preserve">погрешность в диете - прием острой, жирной пищи </t>
@@ -581,6 +449,108 @@
   </si>
   <si>
     <t>Налет на языке</t>
+  </si>
+  <si>
+    <t>обложен белым налетом,с желтым налётом</t>
+  </si>
+  <si>
+    <t>38.8</t>
+  </si>
+  <si>
+    <t>41.8</t>
+  </si>
+  <si>
+    <t>33.4</t>
+  </si>
+  <si>
+    <t>43.4</t>
+  </si>
+  <si>
+    <t>48.7</t>
+  </si>
+  <si>
+    <t>34.2</t>
+  </si>
+  <si>
+    <t>37.9</t>
+  </si>
+  <si>
+    <t>43.1</t>
+  </si>
+  <si>
+    <t>24.4</t>
+  </si>
+  <si>
+    <t>24.9</t>
+  </si>
+  <si>
+    <t>5.6</t>
+  </si>
+  <si>
+    <t>12.7</t>
+  </si>
+  <si>
+    <t>7.7</t>
+  </si>
+  <si>
+    <t>4.2</t>
+  </si>
+  <si>
+    <t>7.1</t>
+  </si>
+  <si>
+    <t>4.4</t>
+  </si>
+  <si>
+    <t>5.5</t>
+  </si>
+  <si>
+    <t>3.6</t>
+  </si>
+  <si>
+    <t>7.4</t>
+  </si>
+  <si>
+    <t>21.6</t>
+  </si>
+  <si>
+    <t>74.5</t>
+  </si>
+  <si>
+    <t>75.3</t>
+  </si>
+  <si>
+    <t>6.9</t>
+  </si>
+  <si>
+    <t>16.6</t>
+  </si>
+  <si>
+    <t>8.5</t>
+  </si>
+  <si>
+    <t>12.2</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>12.8</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>9.4</t>
+  </si>
+  <si>
+    <t>4.8</t>
+  </si>
+  <si>
+    <t>6.5</t>
+  </si>
+  <si>
+    <t>5.8</t>
   </si>
 </sst>
 </file>
@@ -818,7 +788,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -908,7 +878,6 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -996,6 +965,34 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="26" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1310,9 +1307,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE2094"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AC13" sqref="AC13"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.625" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -1325,7 +1322,7 @@
     <col min="6" max="6" width="26.375" style="4" customWidth="1"/>
     <col min="7" max="14" width="18.625" style="4"/>
     <col min="15" max="15" width="14.875" style="4" customWidth="1"/>
-    <col min="16" max="16" width="22.625" style="4" customWidth="1"/>
+    <col min="16" max="16" width="22.625" style="80" customWidth="1"/>
     <col min="17" max="17" width="15" style="4" customWidth="1"/>
     <col min="18" max="18" width="14.625" customWidth="1"/>
     <col min="19" max="19" width="16.375" customWidth="1"/>
@@ -1357,13 +1354,13 @@
         <v>18</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>184</v>
+        <v>140</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>24</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>186</v>
+        <v>142</v>
       </c>
       <c r="J1" s="7" t="s">
         <v>36</v>
@@ -1375,7 +1372,7 @@
         <v>22</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="N1" s="7" t="s">
         <v>38</v>
@@ -1387,13 +1384,13 @@
         <v>31</v>
       </c>
       <c r="Q1" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R1" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S1" s="24" t="s">
-        <v>185</v>
+        <v>141</v>
       </c>
       <c r="T1" s="6" t="s">
         <v>17</v>
@@ -1408,7 +1405,7 @@
         <v>19</v>
       </c>
       <c r="X1" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Y1" s="7" t="s">
         <v>37</v>
@@ -1419,13 +1416,13 @@
       <c r="AA1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="AB1" s="48" t="s">
-        <v>42</v>
+      <c r="AB1" s="47" t="s">
+        <v>41</v>
       </c>
       <c r="AC1" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="AD1" s="47" t="s">
+      <c r="AD1" s="46" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1440,13 +1437,13 @@
         <v>16</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="E2" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="45" t="s">
         <v>7</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G2" s="13">
         <v>38</v>
@@ -1466,15 +1463,17 @@
       <c r="L2" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="13" t="s">
-        <v>40</v>
+      <c r="M2" s="13">
+        <v>5</v>
       </c>
       <c r="N2" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O2" s="51">
-        <v>38.799999999999997</v>
-      </c>
+      <c r="O2" s="50" t="s">
+        <v>144</v>
+      </c>
+      <c r="P2" s="68"/>
+      <c r="S2" s="68"/>
       <c r="U2" s="13" t="s">
         <v>34</v>
       </c>
@@ -1490,7 +1489,7 @@
       <c r="Z2" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="AA2" s="49" t="s">
+      <c r="AA2" s="48" t="s">
         <v>10</v>
       </c>
       <c r="AB2" s="13">
@@ -1502,19 +1501,19 @@
     </row>
     <row r="3" spans="1:31" s="22" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="E3" s="46" t="s">
-        <v>113</v>
+        <v>54</v>
+      </c>
+      <c r="E3" s="45" t="s">
+        <v>95</v>
       </c>
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
@@ -1526,339 +1525,344 @@
       </c>
       <c r="J3" s="11"/>
       <c r="K3" s="13" t="s">
-        <v>107</v>
+        <v>51</v>
       </c>
       <c r="L3" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="M3" s="11" t="s">
-        <v>86</v>
+      <c r="M3" s="11">
+        <v>3</v>
       </c>
       <c r="N3" s="11"/>
-      <c r="O3" s="52" t="s">
-        <v>109</v>
-      </c>
-      <c r="P3" s="21" t="s">
-        <v>89</v>
+      <c r="O3" s="51">
+        <v>35</v>
+      </c>
+      <c r="P3" s="69" t="s">
+        <v>166</v>
       </c>
       <c r="Q3" s="21"/>
-      <c r="S3" s="21" t="s">
-        <v>111</v>
+      <c r="S3" s="69" t="s">
+        <v>163</v>
       </c>
       <c r="T3" s="12" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="V3" s="13" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="W3" s="21"/>
       <c r="X3" s="21" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="Y3" s="21"/>
       <c r="Z3" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AA3" s="12" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="AD3" s="22" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:31" s="22" customFormat="1" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>44</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>45</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>16</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="20" t="s">
         <v>48</v>
-      </c>
-      <c r="F4" s="20" t="s">
-        <v>49</v>
       </c>
       <c r="G4" s="11"/>
       <c r="H4" s="13" t="s">
         <v>26</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K4" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L4" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="22" t="s">
-        <v>181</v>
+      <c r="M4" s="22">
+        <v>4</v>
       </c>
       <c r="N4" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O4" s="53" t="s">
-        <v>177</v>
-      </c>
-      <c r="P4" s="25" t="s">
-        <v>178</v>
+      <c r="O4" s="52" t="s">
+        <v>145</v>
+      </c>
+      <c r="P4" s="70" t="s">
+        <v>167</v>
       </c>
       <c r="Q4" s="22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R4" s="22" t="s">
-        <v>182</v>
-      </c>
-      <c r="S4" s="25" t="s">
-        <v>180</v>
+        <v>138</v>
+      </c>
+      <c r="S4" s="70" t="s">
+        <v>162</v>
       </c>
       <c r="T4" s="23" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="V4" s="23" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="W4" s="23" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="X4" s="23" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="Y4" s="23" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="Z4" s="23" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="AA4" s="23" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="AB4" s="25" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="AD4" s="22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" s="58" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="56" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="56" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="57" t="s">
+        <v>103</v>
+      </c>
+      <c r="E5" s="57" t="s">
+        <v>104</v>
+      </c>
+      <c r="F5" s="57"/>
+      <c r="H5" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="59" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" s="59" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="5" spans="1:31" s="59" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="57" t="s">
-        <v>66</v>
-      </c>
-      <c r="B5" s="57" t="s">
+      <c r="L5" s="59" t="s">
+        <v>23</v>
+      </c>
+      <c r="N5" s="59" t="s">
+        <v>39</v>
+      </c>
+      <c r="O5" s="60"/>
+      <c r="P5" s="71"/>
+      <c r="S5" s="71"/>
+      <c r="T5" s="57"/>
+      <c r="V5" s="57" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z5" s="59" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="57" t="s">
+      <c r="AA5" s="57" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" s="62" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="61" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="58" t="s">
-        <v>121</v>
-      </c>
-      <c r="E5" s="58" t="s">
-        <v>122</v>
-      </c>
-      <c r="F5" s="58"/>
-      <c r="H5" s="60" t="s">
+      <c r="D6" s="61" t="s">
+        <v>96</v>
+      </c>
+      <c r="H6" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="60" t="s">
+      <c r="I6" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="K5" s="60" t="s">
-        <v>52</v>
-      </c>
-      <c r="L5" s="60" t="s">
+      <c r="K6" s="62" t="s">
+        <v>51</v>
+      </c>
+      <c r="L6" s="62" t="s">
+        <v>97</v>
+      </c>
+      <c r="O6" s="63"/>
+      <c r="P6" s="73"/>
+      <c r="R6" s="64"/>
+      <c r="S6" s="72"/>
+      <c r="T6" s="62" t="s">
+        <v>101</v>
+      </c>
+      <c r="W6" s="62" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z6" s="62" t="s">
+        <v>100</v>
+      </c>
+      <c r="AA6" s="62" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB6" s="64"/>
+    </row>
+    <row r="7" spans="1:31" s="62" customFormat="1" ht="46.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="61" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="61" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="61" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="61" t="s">
+        <v>96</v>
+      </c>
+      <c r="E7" s="61" t="s">
+        <v>95</v>
+      </c>
+      <c r="F7" s="61"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="62" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="61"/>
+      <c r="K7" s="62" t="s">
+        <v>51</v>
+      </c>
+      <c r="L7" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="N5" s="60" t="s">
-        <v>39</v>
-      </c>
-      <c r="O5" s="61"/>
-      <c r="T5" s="58"/>
-      <c r="V5" s="58" t="s">
-        <v>112</v>
-      </c>
-      <c r="Z5" s="60" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA5" s="58" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="6" spans="1:31" s="63" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="62" t="s">
-        <v>60</v>
-      </c>
-      <c r="B6" s="62" t="s">
-        <v>61</v>
-      </c>
-      <c r="C6" s="62" t="s">
+      <c r="M7" s="61"/>
+      <c r="O7" s="63"/>
+      <c r="P7" s="73"/>
+      <c r="S7" s="73"/>
+      <c r="T7" s="61" t="s">
+        <v>94</v>
+      </c>
+      <c r="V7" s="62" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z7" s="62" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA7" s="57" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" s="62" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="61" t="s">
+        <v>83</v>
+      </c>
+      <c r="B8" s="65" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="62" t="s">
-        <v>114</v>
-      </c>
-      <c r="H6" s="63" t="s">
+      <c r="D8" s="61" t="s">
+        <v>96</v>
+      </c>
+      <c r="E8" s="61" t="s">
+        <v>95</v>
+      </c>
+      <c r="F8" s="61"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="I6" s="63" t="s">
+      <c r="I8" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="K6" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="L6" s="63" t="s">
-        <v>115</v>
-      </c>
-      <c r="O6" s="64"/>
-      <c r="R6" s="65"/>
-      <c r="S6" s="65"/>
-      <c r="T6" s="63" t="s">
-        <v>119</v>
-      </c>
-      <c r="W6" s="63" t="s">
-        <v>119</v>
-      </c>
-      <c r="Z6" s="63" t="s">
-        <v>118</v>
-      </c>
-      <c r="AA6" s="63" t="s">
-        <v>120</v>
-      </c>
-      <c r="AB6" s="65"/>
-    </row>
-    <row r="7" spans="1:31" s="63" customFormat="1" ht="46.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="62" t="s">
-        <v>62</v>
-      </c>
-      <c r="B7" s="62" t="s">
-        <v>63</v>
-      </c>
-      <c r="C7" s="62" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="62" t="s">
-        <v>114</v>
-      </c>
-      <c r="E7" s="62" t="s">
-        <v>113</v>
-      </c>
-      <c r="F7" s="62"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="63" t="s">
-        <v>26</v>
-      </c>
-      <c r="I7" s="63" t="s">
-        <v>27</v>
-      </c>
-      <c r="J7" s="62"/>
-      <c r="K7" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="L7" s="63" t="s">
+      <c r="J8" s="61"/>
+      <c r="K8" s="62" t="s">
+        <v>51</v>
+      </c>
+      <c r="L8" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="M7" s="62"/>
-      <c r="O7" s="64"/>
-      <c r="T7" s="62" t="s">
-        <v>112</v>
-      </c>
-      <c r="V7" s="63" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z7" s="63" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA7" s="58" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="8" spans="1:31" s="63" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="62" t="s">
-        <v>90</v>
-      </c>
-      <c r="B8" s="66" t="s">
-        <v>84</v>
-      </c>
-      <c r="C8" s="62" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="62" t="s">
-        <v>114</v>
-      </c>
-      <c r="E8" s="62" t="s">
-        <v>113</v>
-      </c>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="63" t="s">
-        <v>26</v>
-      </c>
-      <c r="I8" s="63" t="s">
-        <v>27</v>
-      </c>
-      <c r="J8" s="62"/>
-      <c r="K8" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="L8" s="63" t="s">
-        <v>23</v>
-      </c>
-      <c r="M8" s="62" t="s">
-        <v>86</v>
-      </c>
-      <c r="N8" s="62"/>
-      <c r="O8" s="67" t="s">
-        <v>124</v>
-      </c>
-      <c r="P8" s="65" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q8" s="65"/>
-      <c r="R8" s="63" t="s">
-        <v>125</v>
-      </c>
-      <c r="S8" s="65" t="s">
-        <v>123</v>
-      </c>
-      <c r="T8" s="65" t="s">
+      <c r="M8" s="61">
+        <v>3</v>
+      </c>
+      <c r="N8" s="61"/>
+      <c r="O8" s="66" t="s">
+        <v>146</v>
+      </c>
+      <c r="P8" s="72" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q8" s="64"/>
+      <c r="R8" s="62" t="s">
+        <v>105</v>
+      </c>
+      <c r="S8" s="72" t="s">
+        <v>161</v>
+      </c>
+      <c r="T8" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="U8" s="65"/>
-      <c r="V8" s="65"/>
-      <c r="W8" s="65"/>
-      <c r="Y8" s="65"/>
-      <c r="Z8" s="63" t="s">
+      <c r="U8" s="64"/>
+      <c r="V8" s="64"/>
+      <c r="W8" s="64"/>
+      <c r="Y8" s="64"/>
+      <c r="Z8" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="AA8" s="58" t="s">
-        <v>183</v>
-      </c>
-      <c r="AD8" s="63" t="s">
-        <v>108</v>
+      <c r="AA8" s="57" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD8" s="62" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:31" s="27" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A9" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="B9" s="39" t="s">
-        <v>82</v>
+        <v>78</v>
+      </c>
+      <c r="B9" s="38" t="s">
+        <v>79</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="D9" s="43" t="s">
-        <v>135</v>
+        <v>57</v>
+      </c>
+      <c r="D9" s="42" t="s">
+        <v>112</v>
       </c>
       <c r="E9" s="35" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="F9" s="26"/>
       <c r="G9" s="26"/>
@@ -1870,45 +1874,45 @@
       </c>
       <c r="J9" s="26"/>
       <c r="K9" s="27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L9" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="M9" s="26" t="s">
-        <v>136</v>
+      <c r="M9" s="26">
+        <v>6</v>
       </c>
       <c r="N9" s="26" t="s">
-        <v>127</v>
-      </c>
-      <c r="O9" s="54" t="s">
-        <v>128</v>
-      </c>
-      <c r="P9" s="32" t="s">
-        <v>129</v>
+        <v>107</v>
+      </c>
+      <c r="O9" s="53">
+        <v>33</v>
+      </c>
+      <c r="P9" s="74" t="s">
+        <v>169</v>
       </c>
       <c r="Q9" s="32"/>
       <c r="R9" s="32"/>
-      <c r="S9" s="32" t="s">
-        <v>83</v>
+      <c r="S9" s="74" t="s">
+        <v>160</v>
       </c>
       <c r="T9" s="32"/>
       <c r="U9" s="32"/>
       <c r="V9" s="27" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="W9" s="32"/>
       <c r="X9" s="27" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="Y9" s="27" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="Z9" s="27" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="AA9" s="27" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="AB9" s="32"/>
       <c r="AC9" s="32"/>
@@ -1917,14 +1921,14 @@
       <c r="A10" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="39" t="s">
+      <c r="B10" s="38" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="43" t="s">
-        <v>55</v>
+      <c r="D10" s="42" t="s">
+        <v>54</v>
       </c>
       <c r="E10" s="35"/>
       <c r="F10" s="26"/>
@@ -1933,35 +1937,35 @@
         <v>26</v>
       </c>
       <c r="I10" s="27" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="K10" s="27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L10" s="27" t="s">
-        <v>133</v>
-      </c>
-      <c r="M10" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="O10" s="54" t="s">
-        <v>84</v>
-      </c>
-      <c r="P10" s="32" t="s">
-        <v>132</v>
+        <v>110</v>
+      </c>
+      <c r="M10" s="27">
+        <v>3</v>
+      </c>
+      <c r="O10" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="P10" s="74" t="s">
+        <v>170</v>
       </c>
       <c r="Q10" s="32"/>
       <c r="R10" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="S10" s="32" t="s">
-        <v>85</v>
+        <v>53</v>
+      </c>
+      <c r="S10" s="74" t="s">
+        <v>159</v>
       </c>
       <c r="T10" s="32"/>
       <c r="V10" s="32"/>
       <c r="W10" s="32"/>
       <c r="X10" s="27" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="Y10" s="27" t="s">
         <v>34</v>
@@ -1970,155 +1974,155 @@
         <v>34</v>
       </c>
       <c r="AA10" s="27" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="AB10" s="32"/>
       <c r="AC10" s="32"/>
       <c r="AD10" s="27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" s="62" customFormat="1" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="61" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" s="65" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="61" t="s">
+        <v>96</v>
+      </c>
+      <c r="E11" s="67"/>
+      <c r="F11" s="61"/>
+      <c r="H11" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" s="62" t="s">
+        <v>27</v>
+      </c>
+      <c r="J11" s="61"/>
+      <c r="K11" s="62" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="11" spans="1:31" s="63" customFormat="1" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="62" t="s">
-        <v>78</v>
-      </c>
-      <c r="B11" s="66" t="s">
-        <v>79</v>
-      </c>
-      <c r="C11" s="62" t="s">
-        <v>58</v>
-      </c>
-      <c r="D11" s="62" t="s">
-        <v>114</v>
-      </c>
-      <c r="E11" s="68"/>
-      <c r="F11" s="62"/>
-      <c r="H11" s="63" t="s">
-        <v>26</v>
-      </c>
-      <c r="I11" s="63" t="s">
-        <v>27</v>
-      </c>
-      <c r="J11" s="62"/>
-      <c r="K11" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="L11" s="63" t="s">
+      <c r="L11" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="M11" s="62" t="s">
+      <c r="M11" s="61">
+        <v>2</v>
+      </c>
+      <c r="N11" s="61"/>
+      <c r="O11" s="66" t="s">
+        <v>147</v>
+      </c>
+      <c r="P11" s="72" t="s">
         <v>171</v>
       </c>
-      <c r="N11" s="62"/>
-      <c r="O11" s="67">
-        <v>43.4</v>
-      </c>
-      <c r="P11" s="65" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q11" s="65"/>
-      <c r="R11" s="63" t="s">
-        <v>54</v>
-      </c>
-      <c r="S11" s="65" t="s">
-        <v>80</v>
-      </c>
-      <c r="T11" s="65"/>
-      <c r="V11" s="65"/>
-      <c r="W11" s="65"/>
-      <c r="X11" s="63" t="s">
-        <v>130</v>
-      </c>
-      <c r="Y11" s="63" t="s">
+      <c r="Q11" s="64"/>
+      <c r="R11" s="62" t="s">
+        <v>53</v>
+      </c>
+      <c r="S11" s="72" t="s">
+        <v>158</v>
+      </c>
+      <c r="T11" s="64"/>
+      <c r="V11" s="64"/>
+      <c r="W11" s="64"/>
+      <c r="X11" s="62" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y11" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="AA11" s="63" t="s">
-        <v>131</v>
-      </c>
-      <c r="AE11" s="62" t="s">
-        <v>139</v>
+      <c r="AA11" s="62" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE11" s="61" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:31" s="30" customFormat="1" ht="52.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="B12" s="40">
+        <v>73</v>
+      </c>
+      <c r="B12" s="39">
         <v>69</v>
       </c>
       <c r="C12" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="43" t="s">
-        <v>55</v>
+      <c r="D12" s="42" t="s">
+        <v>54</v>
       </c>
       <c r="E12" s="34" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="F12" s="29"/>
       <c r="G12" s="31"/>
       <c r="H12" s="30" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I12" s="31" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="J12" s="30" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K12" s="31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L12" s="31" t="s">
-        <v>133</v>
-      </c>
-      <c r="M12" s="30" t="s">
-        <v>77</v>
+        <v>110</v>
+      </c>
+      <c r="M12" s="30">
+        <v>5</v>
       </c>
       <c r="N12" s="30" t="s">
-        <v>144</v>
-      </c>
-      <c r="O12" s="55">
-        <v>48.7</v>
-      </c>
-      <c r="P12" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="S12" s="33" t="s">
-        <v>143</v>
+        <v>116</v>
+      </c>
+      <c r="O12" s="54" t="s">
+        <v>148</v>
+      </c>
+      <c r="P12" s="76" t="s">
+        <v>173</v>
+      </c>
+      <c r="S12" s="75" t="s">
+        <v>157</v>
       </c>
       <c r="V12" s="31" t="s">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c r="W12" s="29"/>
       <c r="X12" s="31" t="s">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c r="Y12" s="31" t="s">
-        <v>137</v>
-      </c>
-      <c r="AA12" s="50" t="s">
-        <v>138</v>
+        <v>113</v>
+      </c>
+      <c r="AA12" s="49" t="s">
+        <v>114</v>
       </c>
       <c r="AB12" s="33" t="s">
-        <v>142</v>
+        <v>165</v>
       </c>
     </row>
     <row r="13" spans="1:31" s="31" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="B13" s="41" t="s">
-        <v>59</v>
+        <v>84</v>
+      </c>
+      <c r="B13" s="40" t="s">
+        <v>58</v>
       </c>
       <c r="C13" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="44" t="s">
-        <v>56</v>
+      <c r="D13" s="43" t="s">
+        <v>55</v>
       </c>
       <c r="E13" s="35" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="F13" s="29"/>
       <c r="G13" s="29"/>
@@ -2129,73 +2133,73 @@
         <v>27</v>
       </c>
       <c r="J13" s="29" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="K13" s="31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L13" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="M13" s="29" t="s">
+      <c r="M13" s="29">
+        <v>5</v>
+      </c>
+      <c r="N13" s="29"/>
+      <c r="O13" s="54" t="s">
+        <v>149</v>
+      </c>
+      <c r="P13" s="76" t="s">
         <v>172</v>
-      </c>
-      <c r="N13" s="29"/>
-      <c r="O13" s="55" t="s">
-        <v>147</v>
-      </c>
-      <c r="P13" s="30" t="s">
-        <v>146</v>
       </c>
       <c r="Q13" s="30"/>
       <c r="R13" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="S13" s="30" t="s">
-        <v>94</v>
+        <v>53</v>
+      </c>
+      <c r="S13" s="76" t="s">
+        <v>156</v>
       </c>
       <c r="T13" s="31" t="s">
-        <v>145</v>
+        <v>117</v>
       </c>
       <c r="V13" s="31" t="s">
-        <v>148</v>
+        <v>118</v>
       </c>
       <c r="W13" s="31" t="s">
-        <v>145</v>
+        <v>117</v>
       </c>
       <c r="Y13" s="31" t="s">
-        <v>145</v>
+        <v>117</v>
       </c>
       <c r="Z13" s="31" t="s">
-        <v>145</v>
+        <v>117</v>
       </c>
       <c r="AA13" s="31" t="s">
-        <v>148</v>
+        <v>118</v>
       </c>
       <c r="AD13" s="31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AE13" s="29" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:31" s="31" customFormat="1" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="B14" s="41" t="s">
         <v>64</v>
+      </c>
+      <c r="B14" s="40" t="s">
+        <v>63</v>
       </c>
       <c r="C14" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="43" t="s">
-        <v>70</v>
+      <c r="D14" s="42" t="s">
+        <v>69</v>
       </c>
       <c r="E14" s="34"/>
       <c r="F14" s="29"/>
       <c r="G14" s="31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H14" s="31" t="s">
         <v>26</v>
@@ -2204,118 +2208,120 @@
         <v>27</v>
       </c>
       <c r="J14" s="31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K14" s="31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L14" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="O14" s="56"/>
+      <c r="O14" s="55"/>
+      <c r="P14" s="77"/>
       <c r="R14" s="31" t="s">
-        <v>54</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="S14" s="77"/>
       <c r="T14" s="29"/>
       <c r="U14" s="31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="V14" s="29"/>
       <c r="Z14" s="31" t="s">
         <v>34</v>
       </c>
       <c r="AA14" s="31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AD14" s="31" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" s="62" customFormat="1" ht="69" x14ac:dyDescent="0.3">
+      <c r="A15" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="B15" s="65" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="E15" s="67" t="s">
+        <v>122</v>
+      </c>
+      <c r="F15" s="61"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="I15" s="62" t="s">
+        <v>27</v>
+      </c>
+      <c r="J15" s="61" t="s">
+        <v>124</v>
+      </c>
+      <c r="K15" s="62" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="15" spans="1:31" s="63" customFormat="1" ht="69" x14ac:dyDescent="0.3">
-      <c r="A15" s="62" t="s">
-        <v>95</v>
-      </c>
-      <c r="B15" s="66" t="s">
-        <v>96</v>
-      </c>
-      <c r="C15" s="62" t="s">
-        <v>58</v>
-      </c>
-      <c r="D15" s="63" t="s">
-        <v>114</v>
-      </c>
-      <c r="E15" s="68" t="s">
-        <v>153</v>
-      </c>
-      <c r="F15" s="62"/>
-      <c r="G15" s="62"/>
-      <c r="H15" s="63" t="s">
-        <v>26</v>
-      </c>
-      <c r="I15" s="63" t="s">
-        <v>27</v>
-      </c>
-      <c r="J15" s="62" t="s">
+      <c r="L15" s="62" t="s">
+        <v>23</v>
+      </c>
+      <c r="M15" s="61">
+        <v>5</v>
+      </c>
+      <c r="N15" s="61"/>
+      <c r="O15" s="66" t="s">
+        <v>150</v>
+      </c>
+      <c r="P15" s="72" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q15" s="64"/>
+      <c r="R15" s="62" t="s">
+        <v>121</v>
+      </c>
+      <c r="S15" s="72" t="s">
         <v>155</v>
       </c>
-      <c r="K15" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="L15" s="63" t="s">
-        <v>23</v>
-      </c>
-      <c r="M15" s="62" t="s">
-        <v>172</v>
-      </c>
-      <c r="N15" s="62"/>
-      <c r="O15" s="67" t="s">
-        <v>152</v>
-      </c>
-      <c r="P15" s="65" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q15" s="65"/>
-      <c r="R15" s="63" t="s">
-        <v>151</v>
-      </c>
-      <c r="S15" s="65" t="s">
-        <v>98</v>
-      </c>
-      <c r="T15" s="63" t="s">
-        <v>154</v>
-      </c>
-      <c r="V15" s="63" t="s">
+      <c r="T15" s="62" t="s">
+        <v>123</v>
+      </c>
+      <c r="V15" s="62" t="s">
+        <v>71</v>
+      </c>
+      <c r="W15" s="64"/>
+      <c r="X15" s="62" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y15" s="62" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z15" s="62" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA15" s="62" t="s">
         <v>72</v>
       </c>
-      <c r="W15" s="65"/>
-      <c r="X15" s="63" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y15" s="63" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z15" s="63" t="s">
-        <v>34</v>
-      </c>
-      <c r="AA15" s="63" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD15" s="63" t="s">
-        <v>51</v>
+      <c r="AD15" s="62" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:31" s="31" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A16" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="B16" s="41" t="s">
-        <v>88</v>
+        <v>90</v>
+      </c>
+      <c r="B16" s="40" t="s">
+        <v>82</v>
       </c>
       <c r="C16" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="44" t="s">
-        <v>55</v>
+      <c r="D16" s="43" t="s">
+        <v>54</v>
       </c>
       <c r="E16" s="35"/>
       <c r="F16" s="29"/>
@@ -2328,31 +2334,31 @@
       </c>
       <c r="J16" s="29"/>
       <c r="K16" s="29" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L16" s="29" t="s">
-        <v>174</v>
-      </c>
-      <c r="M16" s="29" t="s">
-        <v>176</v>
+        <v>137</v>
+      </c>
+      <c r="M16" s="29">
+        <v>3</v>
       </c>
       <c r="N16" s="29"/>
-      <c r="O16" s="55" t="s">
+      <c r="O16" s="54">
+        <v>34</v>
+      </c>
+      <c r="P16" s="76" t="s">
         <v>175</v>
       </c>
-      <c r="P16" s="30" t="s">
-        <v>105</v>
-      </c>
       <c r="Q16" s="30"/>
-      <c r="S16" s="30" t="s">
-        <v>104</v>
+      <c r="S16" s="76" t="s">
+        <v>154</v>
       </c>
       <c r="T16" s="31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="V16" s="30"/>
       <c r="W16" s="31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="X16" s="31" t="s">
         <v>34</v>
@@ -2364,24 +2370,24 @@
         <v>34</v>
       </c>
       <c r="AA16" s="31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:30" s="31" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A17" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="B17" s="41" t="s">
-        <v>100</v>
+        <v>88</v>
+      </c>
+      <c r="B17" s="40" t="s">
+        <v>89</v>
       </c>
       <c r="C17" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="D17" s="44" t="s">
-        <v>166</v>
+        <v>57</v>
+      </c>
+      <c r="D17" s="43" t="s">
+        <v>133</v>
       </c>
       <c r="E17" s="35" t="s">
-        <v>167</v>
+        <v>134</v>
       </c>
       <c r="F17" s="29"/>
       <c r="G17" s="29"/>
@@ -2389,35 +2395,35 @@
         <v>26</v>
       </c>
       <c r="I17" s="29" t="s">
-        <v>170</v>
+        <v>136</v>
       </c>
       <c r="J17" s="29"/>
       <c r="K17" s="31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L17" s="31" t="s">
-        <v>115</v>
-      </c>
-      <c r="M17" s="29" t="s">
-        <v>173</v>
+        <v>97</v>
+      </c>
+      <c r="M17" s="29">
+        <v>3</v>
       </c>
       <c r="N17" s="29"/>
       <c r="O17" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="P17" s="30" t="s">
-        <v>102</v>
+        <v>151</v>
+      </c>
+      <c r="P17" s="76" t="s">
+        <v>176</v>
       </c>
       <c r="Q17" s="30"/>
       <c r="R17" s="30" t="s">
-        <v>168</v>
-      </c>
-      <c r="S17" s="30" t="s">
-        <v>169</v>
+        <v>135</v>
+      </c>
+      <c r="S17" s="76" t="s">
+        <v>153</v>
       </c>
       <c r="T17" s="30"/>
       <c r="V17" s="31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W17" s="30"/>
       <c r="X17" s="31" t="s">
@@ -2428,27 +2434,27 @@
         <v>34</v>
       </c>
       <c r="AA17" s="31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AD17" s="31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:30" s="36" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="34" t="s">
-        <v>116</v>
-      </c>
-      <c r="B18" s="42" t="s">
-        <v>117</v>
+        <v>98</v>
+      </c>
+      <c r="B18" s="41" t="s">
+        <v>99</v>
       </c>
       <c r="C18" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="45" t="s">
-        <v>158</v>
+      <c r="D18" s="44" t="s">
+        <v>126</v>
       </c>
       <c r="E18" s="34" t="s">
-        <v>159</v>
+        <v>127</v>
       </c>
       <c r="F18" s="34"/>
       <c r="G18" s="34"/>
@@ -2460,30 +2466,31 @@
       </c>
       <c r="J18" s="34"/>
       <c r="K18" s="34" t="s">
-        <v>157</v>
+        <v>125</v>
       </c>
       <c r="L18" s="34"/>
       <c r="M18" s="34"/>
-      <c r="S18" s="37" t="s">
-        <v>156</v>
+      <c r="P18" s="79"/>
+      <c r="S18" s="78" t="s">
+        <v>152</v>
       </c>
       <c r="V18" s="31" t="s">
-        <v>165</v>
+        <v>132</v>
       </c>
       <c r="W18" s="36" t="s">
-        <v>162</v>
+        <v>129</v>
       </c>
       <c r="X18" s="36" t="s">
-        <v>163</v>
+        <v>130</v>
       </c>
       <c r="Z18" s="36" t="s">
-        <v>164</v>
+        <v>131</v>
       </c>
       <c r="AA18" s="31" t="s">
-        <v>161</v>
-      </c>
-      <c r="AB18" s="38" t="s">
-        <v>160</v>
+        <v>128</v>
+      </c>
+      <c r="AB18" s="37">
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.3">
@@ -2511,6 +2518,7 @@
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
+      <c r="P21" s="81"/>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
